--- a/loderunner/res/sprites-loderunner.xlsx
+++ b/loderunner/res/sprites-loderunner.xlsx
@@ -269,257 +269,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="235">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="210">
     <dxf>
       <font>
         <color theme="1"/>
@@ -2922,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DQ151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V74" sqref="V74:AI75"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CX72" sqref="CX72:DK72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3484,30 +3234,14 @@
       <c r="BL3" s="1">
         <v>1</v>
       </c>
-      <c r="BM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT3" s="1">
-        <v>1</v>
-      </c>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
       <c r="BU3" s="1">
         <v>1</v>
       </c>
@@ -3519,11 +3253,11 @@
       <c r="BY3" s="5"/>
       <c r="BZ3" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>f8</v>
+        <v>18</v>
       </c>
       <c r="CA3" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>7f</v>
+        <v>60</v>
       </c>
       <c r="CB3" s="5"/>
       <c r="CC3" s="2"/>
@@ -3759,30 +3493,14 @@
       <c r="BL4" s="1">
         <v>1</v>
       </c>
-      <c r="BM4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT4" s="1">
-        <v>1</v>
-      </c>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
       <c r="BU4" s="1">
         <v>1</v>
       </c>
@@ -3794,11 +3512,11 @@
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>f8</v>
+        <v>18</v>
       </c>
       <c r="CA4" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>7f</v>
+        <v>60</v>
       </c>
       <c r="CB4" s="5"/>
       <c r="CC4" s="2"/>
@@ -4006,14 +3724,30 @@
       <c r="BL5" s="1">
         <v>1</v>
       </c>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="1"/>
-      <c r="BS5" s="1"/>
-      <c r="BT5" s="1"/>
+      <c r="BM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="1">
+        <v>1</v>
+      </c>
       <c r="BU5" s="1">
         <v>1</v>
       </c>
@@ -4025,11 +3759,11 @@
       <c r="BY5" s="5"/>
       <c r="BZ5" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>f8</v>
       </c>
       <c r="CA5" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>7f</v>
       </c>
       <c r="CB5" s="5"/>
       <c r="CC5" s="2"/>
@@ -4237,14 +3971,30 @@
       <c r="BL6" s="1">
         <v>1</v>
       </c>
-      <c r="BM6" s="1"/>
-      <c r="BN6" s="1"/>
-      <c r="BO6" s="1"/>
-      <c r="BP6" s="1"/>
-      <c r="BQ6" s="1"/>
-      <c r="BR6" s="1"/>
-      <c r="BS6" s="1"/>
-      <c r="BT6" s="1"/>
+      <c r="BM6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>1</v>
+      </c>
       <c r="BU6" s="1">
         <v>1</v>
       </c>
@@ -4256,11 +4006,11 @@
       <c r="BY6" s="5"/>
       <c r="BZ6" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>f8</v>
       </c>
       <c r="CA6" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>7f</v>
       </c>
       <c r="CB6" s="5"/>
       <c r="CC6" s="2"/>
@@ -4651,30 +4401,14 @@
       <c r="BL8" s="1">
         <v>1</v>
       </c>
-      <c r="BM8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT8" s="1">
-        <v>1</v>
-      </c>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
       <c r="BU8" s="1">
         <v>1</v>
       </c>
@@ -4686,11 +4420,11 @@
       <c r="BY8" s="5"/>
       <c r="BZ8" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>f8</v>
+        <v>18</v>
       </c>
       <c r="CA8" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>7f</v>
+        <v>60</v>
       </c>
       <c r="CB8" s="5"/>
       <c r="CC8" s="2"/>
@@ -4898,30 +4632,14 @@
       <c r="BL9" s="1">
         <v>1</v>
       </c>
-      <c r="BM9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>1</v>
-      </c>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
       <c r="BU9" s="1">
         <v>1</v>
       </c>
@@ -4933,11 +4651,11 @@
       <c r="BY9" s="5"/>
       <c r="BZ9" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>f8</v>
+        <v>18</v>
       </c>
       <c r="CA9" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>7f</v>
+        <v>60</v>
       </c>
       <c r="CB9" s="5"/>
       <c r="CC9" s="2"/>
@@ -5627,14 +5345,30 @@
       <c r="BL12" s="1">
         <v>1</v>
       </c>
-      <c r="BM12" s="1"/>
-      <c r="BN12" s="1"/>
-      <c r="BO12" s="1"/>
-      <c r="BP12" s="1"/>
-      <c r="BQ12" s="1"/>
-      <c r="BR12" s="1"/>
-      <c r="BS12" s="1"/>
-      <c r="BT12" s="1"/>
+      <c r="BM12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>1</v>
+      </c>
       <c r="BU12" s="1">
         <v>1</v>
       </c>
@@ -5646,11 +5380,11 @@
       <c r="BY12" s="5"/>
       <c r="BZ12" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>f8</v>
       </c>
       <c r="CA12" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>7f</v>
       </c>
       <c r="CB12" s="5"/>
       <c r="CC12" s="2"/>
@@ -6069,30 +5803,14 @@
       <c r="BL14" s="1">
         <v>1</v>
       </c>
-      <c r="BM14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT14" s="1">
-        <v>1</v>
-      </c>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
       <c r="BU14" s="1">
         <v>1</v>
       </c>
@@ -6104,11 +5822,11 @@
       <c r="BY14" s="5"/>
       <c r="BZ14" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>f8</v>
+        <v>18</v>
       </c>
       <c r="CA14" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>7f</v>
+        <v>60</v>
       </c>
       <c r="CB14" s="5"/>
       <c r="CC14" s="2"/>
@@ -14083,7 +13801,9 @@
       <c r="AU55" s="1">
         <v>1</v>
       </c>
-      <c r="AV55" s="1"/>
+      <c r="AV55" s="1">
+        <v>1</v>
+      </c>
       <c r="AW55" s="1">
         <v>1</v>
       </c>
@@ -14101,7 +13821,7 @@
       </c>
       <c r="BG55" s="5" t="str">
         <f t="shared" si="41"/>
-        <v>02</v>
+        <v>03</v>
       </c>
       <c r="BH55" s="5"/>
       <c r="BI55" s="2"/>
@@ -17372,12 +17092,8 @@
       </c>
       <c r="CV72" s="5"/>
       <c r="CW72" s="2"/>
-      <c r="CX72" s="1">
-        <v>1</v>
-      </c>
-      <c r="CY72" s="1">
-        <v>1</v>
-      </c>
+      <c r="CX72" s="1"/>
+      <c r="CY72" s="1"/>
       <c r="CZ72" s="1"/>
       <c r="DA72" s="1"/>
       <c r="DB72" s="1"/>
@@ -17388,21 +17104,17 @@
       <c r="DG72" s="1"/>
       <c r="DH72" s="1"/>
       <c r="DI72" s="1"/>
-      <c r="DJ72" s="1">
-        <v>1</v>
-      </c>
-      <c r="DK72" s="1">
-        <v>1</v>
-      </c>
+      <c r="DJ72" s="1"/>
+      <c r="DK72" s="1"/>
       <c r="DL72" s="2"/>
       <c r="DM72" s="5"/>
       <c r="DN72" s="5" t="str">
         <f t="shared" si="58"/>
-        <v>0c</v>
+        <v>00</v>
       </c>
       <c r="DO72" s="5" t="str">
         <f t="shared" si="59"/>
-        <v>c0</v>
+        <v>00</v>
       </c>
     </row>
     <row r="73" spans="1:119" customFormat="1" x14ac:dyDescent="0.25">
@@ -17790,8 +17502,12 @@
       </c>
       <c r="CV74" s="5"/>
       <c r="CW74" s="2"/>
-      <c r="CX74" s="1"/>
-      <c r="CY74" s="1"/>
+      <c r="CX74" s="1">
+        <v>1</v>
+      </c>
+      <c r="CY74" s="1">
+        <v>1</v>
+      </c>
       <c r="CZ74" s="1"/>
       <c r="DA74" s="1"/>
       <c r="DB74" s="1"/>
@@ -17802,17 +17518,21 @@
       <c r="DG74" s="1"/>
       <c r="DH74" s="1"/>
       <c r="DI74" s="1"/>
-      <c r="DJ74" s="1"/>
-      <c r="DK74" s="1"/>
+      <c r="DJ74" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK74" s="1">
+        <v>1</v>
+      </c>
       <c r="DL74" s="2"/>
       <c r="DM74" s="5"/>
       <c r="DN74" s="5" t="str">
         <f t="shared" si="58"/>
-        <v>00</v>
+        <v>0c</v>
       </c>
       <c r="DO74" s="5" t="str">
         <f t="shared" si="59"/>
-        <v>00</v>
+        <v>c0</v>
       </c>
     </row>
     <row r="75" spans="1:119" customFormat="1" x14ac:dyDescent="0.25">
@@ -19384,15 +19104,9 @@
     </row>
     <row r="84" spans="1:119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="1">
-        <v>1</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1">
-        <v>1</v>
-      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -19401,24 +19115,18 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="1">
-        <v>1</v>
-      </c>
-      <c r="N84" s="1">
-        <v>1</v>
-      </c>
-      <c r="O84" s="1">
-        <v>1</v>
-      </c>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5" t="str">
         <f t="shared" si="60"/>
-        <v>1c</v>
+        <v>00</v>
       </c>
       <c r="S84" s="5" t="str">
         <f t="shared" si="61"/>
-        <v>e0</v>
+        <v>00</v>
       </c>
       <c r="T84" s="5"/>
       <c r="U84" s="2"/>
@@ -20397,9 +20105,15 @@
     </row>
     <row r="89" spans="1:119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -20408,18 +20122,24 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
+      <c r="M89" s="1">
+        <v>1</v>
+      </c>
+      <c r="N89" s="1">
+        <v>1</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5" t="str">
         <f t="shared" si="60"/>
-        <v>00</v>
+        <v>1c</v>
       </c>
       <c r="S89" s="5" t="str">
         <f t="shared" si="61"/>
-        <v>00</v>
+        <v>e0</v>
       </c>
       <c r="T89" s="5"/>
       <c r="U89" s="2"/>
@@ -31271,24 +30991,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BB46:BC46"/>
-    <mergeCell ref="BV46:BW46"/>
-    <mergeCell ref="CP46:CQ46"/>
-    <mergeCell ref="DJ46:DK46"/>
-    <mergeCell ref="BB61:BC61"/>
-    <mergeCell ref="BV61:BW61"/>
-    <mergeCell ref="CP61:CQ61"/>
-    <mergeCell ref="DJ61:DK61"/>
-    <mergeCell ref="DJ76:DK76"/>
-    <mergeCell ref="BB91:BC91"/>
-    <mergeCell ref="BV91:BW91"/>
-    <mergeCell ref="CP91:CQ91"/>
-    <mergeCell ref="DJ91:DK91"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="AH76:AI76"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="AH91:AI91"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="AH106:AI106"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="AH121:AI121"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="AH136:AI136"/>
     <mergeCell ref="BB136:BC136"/>
     <mergeCell ref="BV136:BW136"/>
     <mergeCell ref="CP136:CQ136"/>
@@ -31305,995 +31013,1037 @@
     <mergeCell ref="BB76:BC76"/>
     <mergeCell ref="BV76:BW76"/>
     <mergeCell ref="CP76:CQ76"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="AH106:AI106"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="AH121:AI121"/>
-    <mergeCell ref="N136:O136"/>
-    <mergeCell ref="AH136:AI136"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="AH76:AI76"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="AH91:AI91"/>
+    <mergeCell ref="DJ76:DK76"/>
+    <mergeCell ref="BB91:BC91"/>
+    <mergeCell ref="BV91:BW91"/>
+    <mergeCell ref="CP91:CQ91"/>
+    <mergeCell ref="DJ91:DK91"/>
+    <mergeCell ref="BB46:BC46"/>
+    <mergeCell ref="BV46:BW46"/>
+    <mergeCell ref="CP46:CQ46"/>
+    <mergeCell ref="DJ46:DK46"/>
+    <mergeCell ref="BB61:BC61"/>
+    <mergeCell ref="BV61:BW61"/>
+    <mergeCell ref="CP61:CQ61"/>
+    <mergeCell ref="DJ61:DK61"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:O13">
-    <cfRule type="cellIs" dxfId="234" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:AI30">
-    <cfRule type="cellIs" dxfId="233" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="228" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:BC13">
-    <cfRule type="cellIs" dxfId="232" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="236" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:O15">
-    <cfRule type="cellIs" dxfId="231" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="235" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD29:CQ30">
-    <cfRule type="cellIs" dxfId="230" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP29:BC30">
-    <cfRule type="cellIs" dxfId="229" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17:AI28">
-    <cfRule type="cellIs" dxfId="228" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="217" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17:AI28">
-    <cfRule type="cellIs" dxfId="227" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="229" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:BC28">
-    <cfRule type="cellIs" dxfId="226" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="227" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ17:BW28">
-    <cfRule type="cellIs" dxfId="225" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="225" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ29:BW30">
-    <cfRule type="cellIs" dxfId="224" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="224" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD17:CQ28">
-    <cfRule type="cellIs" dxfId="223" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="223" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX17:DK28">
-    <cfRule type="cellIs" dxfId="222" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="221" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX29:DK30">
-    <cfRule type="cellIs" dxfId="221" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="220" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:AI30">
-    <cfRule type="cellIs" dxfId="220" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="216" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP17:BC28">
-    <cfRule type="cellIs" dxfId="219" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="215" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP29:BC30">
-    <cfRule type="cellIs" dxfId="218" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ17:BW28">
-    <cfRule type="cellIs" dxfId="217" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="213" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ29:BW30">
-    <cfRule type="cellIs" dxfId="216" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="212" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD17:CQ28">
-    <cfRule type="cellIs" dxfId="215" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="211" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD29:CQ30">
-    <cfRule type="cellIs" dxfId="214" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX17:DK28">
-    <cfRule type="cellIs" dxfId="213" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="209" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX29:DK30">
-    <cfRule type="cellIs" dxfId="212" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="208" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP14:BC15">
+    <cfRule type="cellIs" dxfId="186" priority="204" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:AI13">
+    <cfRule type="cellIs" dxfId="185" priority="203" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V14:AI15">
+    <cfRule type="cellIs" dxfId="184" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD2:CQ13">
+    <cfRule type="cellIs" dxfId="183" priority="201" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD14:CQ15">
+    <cfRule type="cellIs" dxfId="182" priority="200" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:O30">
+    <cfRule type="cellIs" dxfId="181" priority="195" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX2:DK13">
+    <cfRule type="cellIs" dxfId="180" priority="198" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX14:DK15">
+    <cfRule type="cellIs" dxfId="179" priority="197" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:O28">
+    <cfRule type="cellIs" dxfId="178" priority="196" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V44:AI45">
+    <cfRule type="cellIs" dxfId="177" priority="183" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD44:CQ45">
+    <cfRule type="cellIs" dxfId="176" priority="177" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP44:BC45">
+    <cfRule type="cellIs" dxfId="175" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32:AI43">
+    <cfRule type="cellIs" dxfId="174" priority="174" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32:AI43">
+    <cfRule type="cellIs" dxfId="173" priority="184" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP32:BC43">
+    <cfRule type="cellIs" dxfId="172" priority="182" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ32:BW43">
+    <cfRule type="cellIs" dxfId="171" priority="180" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ44:BW45">
+    <cfRule type="cellIs" dxfId="170" priority="179" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD32:CQ43">
+    <cfRule type="cellIs" dxfId="169" priority="178" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX32:DK43">
+    <cfRule type="cellIs" dxfId="168" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX44:DK45">
+    <cfRule type="cellIs" dxfId="167" priority="175" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V44:AI45">
+    <cfRule type="cellIs" dxfId="166" priority="173" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP32:BC43">
+    <cfRule type="cellIs" dxfId="165" priority="172" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP44:BC45">
+    <cfRule type="cellIs" dxfId="164" priority="171" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ32:BW43">
+    <cfRule type="cellIs" dxfId="163" priority="170" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ44:BW45">
+    <cfRule type="cellIs" dxfId="162" priority="169" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD32:CQ43">
+    <cfRule type="cellIs" dxfId="161" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD44:CQ45">
+    <cfRule type="cellIs" dxfId="160" priority="167" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX32:DK43">
+    <cfRule type="cellIs" dxfId="159" priority="166" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX44:DK45">
+    <cfRule type="cellIs" dxfId="158" priority="165" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:O45">
+    <cfRule type="cellIs" dxfId="157" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:O43">
+    <cfRule type="cellIs" dxfId="156" priority="164" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V59:AI60">
+    <cfRule type="cellIs" dxfId="155" priority="161" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD59:CQ60">
+    <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP59:BC60">
+    <cfRule type="cellIs" dxfId="153" priority="159" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V47:AI58">
+    <cfRule type="cellIs" dxfId="152" priority="152" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V47:AI58">
+    <cfRule type="cellIs" dxfId="151" priority="162" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP47:BC58">
+    <cfRule type="cellIs" dxfId="150" priority="160" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ47:BW58">
+    <cfRule type="cellIs" dxfId="149" priority="158" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ59:BW60">
+    <cfRule type="cellIs" dxfId="148" priority="157" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD47:CQ58">
+    <cfRule type="cellIs" dxfId="147" priority="156" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX47:DK58">
+    <cfRule type="cellIs" dxfId="146" priority="154" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX59:DK60">
+    <cfRule type="cellIs" dxfId="145" priority="153" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V59:AI60">
+    <cfRule type="cellIs" dxfId="144" priority="151" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP47:BC58">
+    <cfRule type="cellIs" dxfId="143" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP59:BC60">
+    <cfRule type="cellIs" dxfId="142" priority="149" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ47:BW58">
+    <cfRule type="cellIs" dxfId="141" priority="148" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ59:BW60">
+    <cfRule type="cellIs" dxfId="140" priority="147" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD47:CQ58">
+    <cfRule type="cellIs" dxfId="139" priority="146" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD59:CQ60">
+    <cfRule type="cellIs" dxfId="138" priority="145" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX47:DK58">
+    <cfRule type="cellIs" dxfId="137" priority="144" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX59:DK60">
+    <cfRule type="cellIs" dxfId="136" priority="143" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:O60">
+    <cfRule type="cellIs" dxfId="135" priority="141" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:O58">
+    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ62:BW73">
+    <cfRule type="cellIs" dxfId="133" priority="136" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX62:DK71">
+    <cfRule type="cellIs" dxfId="132" priority="122" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX62:DK71">
+    <cfRule type="cellIs" dxfId="131" priority="132" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V62:AI73">
+    <cfRule type="cellIs" dxfId="130" priority="130" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V62:AI73">
+    <cfRule type="cellIs" dxfId="129" priority="140" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP62:BC73">
+    <cfRule type="cellIs" dxfId="128" priority="138" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ62:BW73">
+    <cfRule type="cellIs" dxfId="127" priority="126" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD62:CQ73">
+    <cfRule type="cellIs" dxfId="126" priority="134" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ77:BW88">
+    <cfRule type="cellIs" dxfId="125" priority="114" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP62:BC73">
+    <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP77:BC88">
+    <cfRule type="cellIs" dxfId="123" priority="116" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD62:CQ73">
+    <cfRule type="cellIs" dxfId="122" priority="124" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD77:CQ88">
+    <cfRule type="cellIs" dxfId="121" priority="112" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ77:BW88">
+    <cfRule type="cellIs" dxfId="120" priority="104" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:O75">
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:O73">
+    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V89:AI90">
+    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD89:CQ90">
+    <cfRule type="cellIs" dxfId="116" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP89:BC90">
+    <cfRule type="cellIs" dxfId="115" priority="115" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V77:AI88">
+    <cfRule type="cellIs" dxfId="114" priority="108" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V77:AI88">
+    <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ89:BW90">
+    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX77:DK88">
+    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX89:DK90">
+    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V89:AI90">
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP77:BC88">
+    <cfRule type="cellIs" dxfId="108" priority="106" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP89:BC90">
+    <cfRule type="cellIs" dxfId="107" priority="105" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ89:BW90">
+    <cfRule type="cellIs" dxfId="106" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD77:CQ88">
+    <cfRule type="cellIs" dxfId="105" priority="102" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD89:CQ90">
+    <cfRule type="cellIs" dxfId="104" priority="101" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX77:DK88">
+    <cfRule type="cellIs" dxfId="103" priority="100" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX89:DK90">
+    <cfRule type="cellIs" dxfId="102" priority="99" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX104:DK105">
+    <cfRule type="cellIs" dxfId="101" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:O88">
+    <cfRule type="cellIs" dxfId="100" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V104:AI105">
+    <cfRule type="cellIs" dxfId="99" priority="95" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD104:CQ105">
+    <cfRule type="cellIs" dxfId="98" priority="89" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP104:BC105">
+    <cfRule type="cellIs" dxfId="97" priority="93" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V92:AI103">
+    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V92:AI103">
+    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP92:BC103">
+    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ92:BW103">
+    <cfRule type="cellIs" dxfId="93" priority="92" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ104:BW105">
+    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD92:CQ103">
+    <cfRule type="cellIs" dxfId="91" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX92:DK103">
+    <cfRule type="cellIs" dxfId="90" priority="88" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX104:DK105">
+    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V104:AI105">
+    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP92:BC103">
+    <cfRule type="cellIs" dxfId="87" priority="84" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP104:BC105">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ92:BW103">
+    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ104:BW105">
+    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD92:CQ103">
+    <cfRule type="cellIs" dxfId="83" priority="80" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD104:CQ105">
+    <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX92:DK103">
+    <cfRule type="cellIs" dxfId="81" priority="78" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:O105">
+    <cfRule type="cellIs" dxfId="80" priority="75" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92:O103">
+    <cfRule type="cellIs" dxfId="79" priority="76" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V119:AI120">
+    <cfRule type="cellIs" dxfId="78" priority="73" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD119:CQ120">
+    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP119:BC120">
+    <cfRule type="cellIs" dxfId="76" priority="71" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V107:AI118">
+    <cfRule type="cellIs" dxfId="75" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V107:AI118">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP107:BC118">
+    <cfRule type="cellIs" dxfId="73" priority="72" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ107:BW118">
+    <cfRule type="cellIs" dxfId="72" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ119:BW120">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD107:CQ118">
+    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX107:DK118">
+    <cfRule type="cellIs" dxfId="69" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX119:DK120">
+    <cfRule type="cellIs" dxfId="68" priority="65" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V119:AI120">
+    <cfRule type="cellIs" dxfId="67" priority="63" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP107:BC118">
+    <cfRule type="cellIs" dxfId="66" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP119:BC120">
+    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ107:BW118">
+    <cfRule type="cellIs" dxfId="64" priority="60" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ119:BW120">
+    <cfRule type="cellIs" dxfId="63" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD107:CQ118">
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD119:CQ120">
+    <cfRule type="cellIs" dxfId="61" priority="57" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX107:DK118">
+    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX119:DK120">
+    <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119:O120">
+    <cfRule type="cellIs" dxfId="58" priority="53" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107:O118">
+    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V134:AI135">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD134:CQ135">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP134:BC135">
+    <cfRule type="cellIs" dxfId="54" priority="49" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V122:AI133">
+    <cfRule type="cellIs" dxfId="53" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V122:AI133">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP122:BC133">
+    <cfRule type="cellIs" dxfId="51" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ122:BW133">
+    <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ134:BW135">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD122:CQ133">
+    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX122:DK133">
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX134:DK135">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V134:AI135">
+    <cfRule type="cellIs" dxfId="45" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP122:BC133">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP134:BC135">
+    <cfRule type="cellIs" dxfId="43" priority="39" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ122:BW133">
+    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ134:BW135">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD122:CQ133">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD134:CQ135">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX122:DK133">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX134:DK135">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:O135">
+    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:O133">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87:O88">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90:O90">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX73:DK73">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX73:DK73">
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX75:DK75">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CX75:DK75">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ72:BW73">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ72:BW73">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD72:CQ73">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD72:CQ73">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD74:CQ75">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CD74:CQ75">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ74:BW75">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ74:BW75">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP73:BC73">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP73:BC73">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP74:BC75">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP74:BC75">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V74:AI75">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V74:AI75">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ2:BW13">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ14:BW15">
-    <cfRule type="cellIs" dxfId="211" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ2:BW13">
-    <cfRule type="cellIs" dxfId="210" priority="196" operator="equal">
+  <conditionalFormatting sqref="B89:O89">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP14:BC15">
-    <cfRule type="cellIs" dxfId="209" priority="194" operator="equal">
+  <conditionalFormatting sqref="B89:O89">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:AI13">
-    <cfRule type="cellIs" dxfId="208" priority="193" operator="equal">
+  <conditionalFormatting sqref="CX74:DK74">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14:AI15">
-    <cfRule type="cellIs" dxfId="207" priority="192" operator="equal">
+  <conditionalFormatting sqref="CX74:DK74">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD2:CQ13">
-    <cfRule type="cellIs" dxfId="206" priority="191" operator="equal">
+  <conditionalFormatting sqref="CX72:DK72">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD14:CQ15">
-    <cfRule type="cellIs" dxfId="205" priority="190" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:O30">
-    <cfRule type="cellIs" dxfId="204" priority="185" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX2:DK13">
-    <cfRule type="cellIs" dxfId="203" priority="188" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX14:DK15">
-    <cfRule type="cellIs" dxfId="202" priority="187" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:O28">
-    <cfRule type="cellIs" dxfId="201" priority="186" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V44:AI45">
-    <cfRule type="cellIs" dxfId="200" priority="173" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD44:CQ45">
-    <cfRule type="cellIs" dxfId="199" priority="167" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP44:BC45">
-    <cfRule type="cellIs" dxfId="198" priority="171" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V32:AI43">
-    <cfRule type="cellIs" dxfId="197" priority="164" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V32:AI43">
-    <cfRule type="cellIs" dxfId="196" priority="174" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP32:BC43">
-    <cfRule type="cellIs" dxfId="195" priority="172" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ32:BW43">
-    <cfRule type="cellIs" dxfId="194" priority="170" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ44:BW45">
-    <cfRule type="cellIs" dxfId="193" priority="169" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD32:CQ43">
-    <cfRule type="cellIs" dxfId="192" priority="168" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX32:DK43">
-    <cfRule type="cellIs" dxfId="191" priority="166" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX44:DK45">
-    <cfRule type="cellIs" dxfId="190" priority="165" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V44:AI45">
-    <cfRule type="cellIs" dxfId="189" priority="163" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP32:BC43">
-    <cfRule type="cellIs" dxfId="188" priority="162" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP44:BC45">
-    <cfRule type="cellIs" dxfId="187" priority="161" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ32:BW43">
-    <cfRule type="cellIs" dxfId="186" priority="160" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ44:BW45">
-    <cfRule type="cellIs" dxfId="185" priority="159" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD32:CQ43">
-    <cfRule type="cellIs" dxfId="184" priority="158" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD44:CQ45">
-    <cfRule type="cellIs" dxfId="183" priority="157" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX32:DK43">
-    <cfRule type="cellIs" dxfId="182" priority="156" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX44:DK45">
-    <cfRule type="cellIs" dxfId="181" priority="155" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44:O45">
-    <cfRule type="cellIs" dxfId="180" priority="153" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:O43">
-    <cfRule type="cellIs" dxfId="179" priority="154" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V59:AI60">
-    <cfRule type="cellIs" dxfId="178" priority="151" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD59:CQ60">
-    <cfRule type="cellIs" dxfId="177" priority="145" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP59:BC60">
-    <cfRule type="cellIs" dxfId="176" priority="149" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V47:AI58">
-    <cfRule type="cellIs" dxfId="175" priority="142" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V47:AI58">
-    <cfRule type="cellIs" dxfId="174" priority="152" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP47:BC58">
-    <cfRule type="cellIs" dxfId="173" priority="150" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ47:BW58">
-    <cfRule type="cellIs" dxfId="172" priority="148" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ59:BW60">
-    <cfRule type="cellIs" dxfId="171" priority="147" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD47:CQ58">
-    <cfRule type="cellIs" dxfId="170" priority="146" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX47:DK58">
-    <cfRule type="cellIs" dxfId="169" priority="144" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX59:DK60">
-    <cfRule type="cellIs" dxfId="168" priority="143" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V59:AI60">
-    <cfRule type="cellIs" dxfId="167" priority="141" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP47:BC58">
-    <cfRule type="cellIs" dxfId="166" priority="140" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP59:BC60">
-    <cfRule type="cellIs" dxfId="165" priority="139" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ47:BW58">
-    <cfRule type="cellIs" dxfId="164" priority="138" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ59:BW60">
-    <cfRule type="cellIs" dxfId="163" priority="137" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD47:CQ58">
-    <cfRule type="cellIs" dxfId="162" priority="136" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD59:CQ60">
-    <cfRule type="cellIs" dxfId="161" priority="135" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX47:DK58">
-    <cfRule type="cellIs" dxfId="160" priority="134" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX59:DK60">
-    <cfRule type="cellIs" dxfId="159" priority="133" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:O60">
-    <cfRule type="cellIs" dxfId="158" priority="131" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:O58">
-    <cfRule type="cellIs" dxfId="157" priority="132" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V62:AI73">
-    <cfRule type="cellIs" dxfId="153" priority="120" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V62:AI73">
-    <cfRule type="cellIs" dxfId="152" priority="130" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP62:BC73">
-    <cfRule type="cellIs" dxfId="151" priority="128" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ62:BW73">
-    <cfRule type="cellIs" dxfId="150" priority="126" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD62:CQ73">
-    <cfRule type="cellIs" dxfId="148" priority="124" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX62:DK71">
-    <cfRule type="cellIs" dxfId="147" priority="122" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP62:BC73">
-    <cfRule type="cellIs" dxfId="144" priority="118" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ62:BW73">
-    <cfRule type="cellIs" dxfId="142" priority="116" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD62:CQ73">
-    <cfRule type="cellIs" dxfId="140" priority="114" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX62:DK71">
-    <cfRule type="cellIs" dxfId="138" priority="112" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B74:O75">
-    <cfRule type="cellIs" dxfId="136" priority="109" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62:O73">
-    <cfRule type="cellIs" dxfId="135" priority="110" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V89:AI90">
-    <cfRule type="cellIs" dxfId="134" priority="107" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD89:CQ90">
-    <cfRule type="cellIs" dxfId="133" priority="101" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP89:BC90">
-    <cfRule type="cellIs" dxfId="132" priority="105" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V77:AI88">
-    <cfRule type="cellIs" dxfId="131" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V77:AI88">
-    <cfRule type="cellIs" dxfId="130" priority="108" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP77:BC88">
-    <cfRule type="cellIs" dxfId="129" priority="106" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ77:BW88">
-    <cfRule type="cellIs" dxfId="128" priority="104" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ89:BW90">
-    <cfRule type="cellIs" dxfId="127" priority="103" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD77:CQ88">
-    <cfRule type="cellIs" dxfId="126" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX77:DK88">
-    <cfRule type="cellIs" dxfId="125" priority="100" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX89:DK90">
-    <cfRule type="cellIs" dxfId="124" priority="99" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V89:AI90">
-    <cfRule type="cellIs" dxfId="123" priority="97" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP77:BC88">
-    <cfRule type="cellIs" dxfId="122" priority="96" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP89:BC90">
-    <cfRule type="cellIs" dxfId="121" priority="95" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ77:BW88">
-    <cfRule type="cellIs" dxfId="120" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ89:BW90">
-    <cfRule type="cellIs" dxfId="119" priority="93" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD77:CQ88">
-    <cfRule type="cellIs" dxfId="118" priority="92" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD89:CQ90">
-    <cfRule type="cellIs" dxfId="117" priority="91" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX77:DK88">
-    <cfRule type="cellIs" dxfId="116" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX89:DK90">
-    <cfRule type="cellIs" dxfId="115" priority="89" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B77:O88">
-    <cfRule type="cellIs" dxfId="113" priority="88" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V104:AI105">
-    <cfRule type="cellIs" dxfId="112" priority="85" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD104:CQ105">
-    <cfRule type="cellIs" dxfId="111" priority="79" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP104:BC105">
-    <cfRule type="cellIs" dxfId="110" priority="83" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V92:AI103">
-    <cfRule type="cellIs" dxfId="109" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V92:AI103">
-    <cfRule type="cellIs" dxfId="108" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP92:BC103">
-    <cfRule type="cellIs" dxfId="107" priority="84" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ92:BW103">
-    <cfRule type="cellIs" dxfId="106" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ104:BW105">
-    <cfRule type="cellIs" dxfId="105" priority="81" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD92:CQ103">
-    <cfRule type="cellIs" dxfId="104" priority="80" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX92:DK103">
-    <cfRule type="cellIs" dxfId="103" priority="78" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX104:DK105">
-    <cfRule type="cellIs" dxfId="102" priority="77" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V104:AI105">
-    <cfRule type="cellIs" dxfId="101" priority="75" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP92:BC103">
-    <cfRule type="cellIs" dxfId="100" priority="74" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP104:BC105">
-    <cfRule type="cellIs" dxfId="99" priority="73" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ92:BW103">
-    <cfRule type="cellIs" dxfId="98" priority="72" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ104:BW105">
-    <cfRule type="cellIs" dxfId="97" priority="71" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD92:CQ103">
-    <cfRule type="cellIs" dxfId="96" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD104:CQ105">
-    <cfRule type="cellIs" dxfId="95" priority="69" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX92:DK103">
-    <cfRule type="cellIs" dxfId="94" priority="68" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX104:DK105">
-    <cfRule type="cellIs" dxfId="93" priority="67" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104:O105">
-    <cfRule type="cellIs" dxfId="92" priority="65" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B92:O103">
-    <cfRule type="cellIs" dxfId="91" priority="66" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V119:AI120">
-    <cfRule type="cellIs" dxfId="90" priority="63" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD119:CQ120">
-    <cfRule type="cellIs" dxfId="89" priority="57" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP119:BC120">
-    <cfRule type="cellIs" dxfId="88" priority="61" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V107:AI118">
-    <cfRule type="cellIs" dxfId="87" priority="54" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V107:AI118">
-    <cfRule type="cellIs" dxfId="86" priority="64" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP107:BC118">
-    <cfRule type="cellIs" dxfId="85" priority="62" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ107:BW118">
-    <cfRule type="cellIs" dxfId="84" priority="60" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ119:BW120">
-    <cfRule type="cellIs" dxfId="83" priority="59" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD107:CQ118">
-    <cfRule type="cellIs" dxfId="82" priority="58" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX107:DK118">
-    <cfRule type="cellIs" dxfId="81" priority="56" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX119:DK120">
-    <cfRule type="cellIs" dxfId="80" priority="55" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V119:AI120">
-    <cfRule type="cellIs" dxfId="79" priority="53" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP107:BC118">
-    <cfRule type="cellIs" dxfId="78" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP119:BC120">
-    <cfRule type="cellIs" dxfId="77" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ107:BW118">
-    <cfRule type="cellIs" dxfId="76" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ119:BW120">
-    <cfRule type="cellIs" dxfId="75" priority="49" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD107:CQ118">
-    <cfRule type="cellIs" dxfId="74" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD119:CQ120">
-    <cfRule type="cellIs" dxfId="73" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX107:DK118">
-    <cfRule type="cellIs" dxfId="72" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX119:DK120">
-    <cfRule type="cellIs" dxfId="71" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B119:O120">
-    <cfRule type="cellIs" dxfId="70" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B107:O118">
-    <cfRule type="cellIs" dxfId="69" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V134:AI135">
-    <cfRule type="cellIs" dxfId="68" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD134:CQ135">
-    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP134:BC135">
-    <cfRule type="cellIs" dxfId="66" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V122:AI133">
-    <cfRule type="cellIs" dxfId="65" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V122:AI133">
-    <cfRule type="cellIs" dxfId="64" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP122:BC133">
-    <cfRule type="cellIs" dxfId="63" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ122:BW133">
-    <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ134:BW135">
-    <cfRule type="cellIs" dxfId="61" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD122:CQ133">
-    <cfRule type="cellIs" dxfId="60" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX122:DK133">
-    <cfRule type="cellIs" dxfId="59" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX134:DK135">
-    <cfRule type="cellIs" dxfId="58" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V134:AI135">
-    <cfRule type="cellIs" dxfId="57" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP122:BC133">
-    <cfRule type="cellIs" dxfId="56" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP134:BC135">
-    <cfRule type="cellIs" dxfId="55" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ122:BW133">
-    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ134:BW135">
-    <cfRule type="cellIs" dxfId="53" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD122:CQ133">
-    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD134:CQ135">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX122:DK133">
-    <cfRule type="cellIs" dxfId="50" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX134:DK135">
-    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134:O135">
-    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B122:O133">
-    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B87:O88">
-    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89:O90">
-    <cfRule type="cellIs" dxfId="44" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX72:DK73">
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX72:DK73">
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX74:DK75">
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CX74:DK75">
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ72:BW73">
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ72:BW73">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD72:CQ73">
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD72:CQ73">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD74:CQ75">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CD74:CQ75">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ74:BW75">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ74:BW75">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP73:BC73">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP73:BC73">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP74:BC75">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP74:BC75">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V74:AI75">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V74:AI75">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="CX72:DK72">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
